--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F2" t="n">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="G2" t="n">
-        <v>90.7</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="3">
@@ -498,16 +498,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -521,19 +521,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="D4" t="n">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" t="n">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D5" t="n">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G5" t="n">
-        <v>90.7</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="6">
@@ -570,13 +570,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>total_theoretical_setup_time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>setup_efficiency</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -481,16 +476,13 @@
         <v>185</v>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F2" t="n">
         <v>126</v>
-      </c>
-      <c r="G2" t="n">
-        <v>85.7</v>
       </c>
     </row>
     <row r="3">
@@ -512,9 +504,6 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -535,9 +524,6 @@
       <c r="F4" t="n">
         <v>340</v>
       </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,19 +533,16 @@
         <v>95</v>
       </c>
       <c r="C5" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
         <v>218</v>
-      </c>
-      <c r="G5" t="n">
-        <v>87.2</v>
       </c>
     </row>
     <row r="6">
@@ -579,9 +562,6 @@
         <v>243</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,99 +470,59 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>483</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>483</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>340</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>95</v>
-      </c>
-      <c r="C5" t="n">
-        <v>294</v>
-      </c>
-      <c r="D5" t="n">
-        <v>218</v>
-      </c>
-      <c r="E5" t="n">
-        <v>76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>243</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>243</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -473,13 +473,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -467,59 +467,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28</v>
-      </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -513,16 +513,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,46 +485,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,59 +470,79 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">

--- a/python_engine/data/output/machine_gap_summary.xlsx
+++ b/python_engine/data/output/machine_gap_summary.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,127 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>machine_index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>gap_count</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>total_gap_time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_setup_time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total_idle_time</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>total_theoretical_setup_time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>